--- a/config_1.19/prop_clear_server.xlsx
+++ b/config_1.19/prop_clear_server.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_1.12\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\HuanLe_doc\config_1.19\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -339,10 +339,6 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>礼盒</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
     <t>prop_hqjnh_csbox</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
@@ -364,6 +360,10 @@
   </si>
   <si>
     <t>欢乐嘉年庆稀有宝箱</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>掉落物通用清除</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -837,8 +837,8 @@
   <dimension ref="A1:F39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K25" sqref="K25"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -955,7 +955,7 @@
         <v>1610985599</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.15">
@@ -1473,7 +1473,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C37" s="16">
         <v>1610409600</v>
@@ -1482,7 +1482,7 @@
         <v>1610985599</v>
       </c>
       <c r="E37" s="17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -1490,7 +1490,7 @@
         <v>37</v>
       </c>
       <c r="B38" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C38" s="16">
         <v>1610409600</v>
@@ -1499,7 +1499,7 @@
         <v>1610985599</v>
       </c>
       <c r="E38" s="17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -1507,7 +1507,7 @@
         <v>38</v>
       </c>
       <c r="B39" s="17" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C39" s="16">
         <v>1610409600</v>
@@ -1516,7 +1516,7 @@
         <v>1610985599</v>
       </c>
       <c r="E39" s="17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>

--- a/config_1.19/prop_clear_server.xlsx
+++ b/config_1.19/prop_clear_server.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="88">
   <si>
     <t>id|行号</t>
   </si>
@@ -364,6 +364,51 @@
   </si>
   <si>
     <t>掉落物通用清除</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>prop</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_fclb_gong</t>
+    </r>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_xi</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_fa</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>prop_fclb_cai</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>喜字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>发字符</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>财字符</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -436,7 +481,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -458,6 +503,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -555,7 +606,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -834,11 +885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F39"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E6" sqref="E6"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -949,10 +1000,10 @@
         <v>13</v>
       </c>
       <c r="C6" s="16">
-        <v>1610409600</v>
+        <v>1611014400</v>
       </c>
       <c r="D6" s="16">
-        <v>1610985599</v>
+        <v>1611590399</v>
       </c>
       <c r="E6" s="12" t="s">
         <v>79</v>
@@ -1472,16 +1523,16 @@
       <c r="A37" s="8">
         <v>36</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="C37" s="16">
+      <c r="C37" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D37" s="16">
+      <c r="D37" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E37" s="17" t="s">
+      <c r="E37" s="10" t="s">
         <v>76</v>
       </c>
     </row>
@@ -1489,16 +1540,16 @@
       <c r="A38" s="8">
         <v>37</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C38" s="16">
+      <c r="C38" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D38" s="16">
+      <c r="D38" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E38" s="17" t="s">
+      <c r="E38" s="10" t="s">
         <v>77</v>
       </c>
     </row>
@@ -1506,17 +1557,85 @@
       <c r="A39" s="8">
         <v>38</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="16">
+      <c r="C39" s="11">
         <v>1610409600</v>
       </c>
-      <c r="D39" s="16">
+      <c r="D39" s="11">
         <v>1610985599</v>
       </c>
-      <c r="E39" s="17" t="s">
+      <c r="E39" s="10" t="s">
         <v>78</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A40" s="8">
+        <v>39</v>
+      </c>
+      <c r="B40" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D40" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E40" s="17" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A41" s="8">
+        <v>40</v>
+      </c>
+      <c r="B41" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="C41" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D41" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E41" s="17" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A42" s="8">
+        <v>41</v>
+      </c>
+      <c r="B42" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D42" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E42" s="17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A43" s="8">
+        <v>42</v>
+      </c>
+      <c r="B43" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="16">
+        <v>1611014400</v>
+      </c>
+      <c r="D43" s="16">
+        <v>1611590399</v>
+      </c>
+      <c r="E43" s="17" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
